--- a/CE09OSSM/CE09OSSM_R0000#_ingest.xlsx
+++ b/CE09OSSM/CE09OSSM_R0000#_ingest.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="CE09OSSM_R0000#_ingest_v#" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
   <si>
     <t>uframe_route</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Ingest.metbk-a-dcl_recovered</t>
   </si>
   <si>
-    <t>Ingest.wavss-a-dcl-full_recovered</t>
-  </si>
-  <si>
     <t>Ingest.spkir-abj-dcl_recovered</t>
   </si>
   <si>
@@ -100,114 +97,39 @@
     <t>Ingest.adcpt-acfgm-dcl-pd0_recovered</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl11/mopak_*/*.mopak.log</t>
-  </si>
-  <si>
-    <t>CE09OSSM-SBD11-01-MOPAKO000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl11/metbk1_*/*.metbk*.log </t>
-  </si>
-  <si>
     <t>CE09OSSM-SBD11-06-METBKA000</t>
   </si>
   <si>
-    <t xml:space="preserve">/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl12/wavss_*/*.wavss.log </t>
-  </si>
-  <si>
     <t>CE09OSSM-SBD12-05-WAVSSA000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/spkir_*/*.spkir*.log</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-08-SPKIRB000</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl26/velpt2_*/*.velpt*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID26-04-VELPTA000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl26/PHSEN_*/SAMI*.txt</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID26-06-PHSEND000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl35/PHSEN_*/SAMI*.txt</t>
-  </si>
-  <si>
     <t>CE09OSSM-MFD35-06-PHSEND000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/OPTAA_*/*.optaa*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-01-OPTAAD000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl37/OPTAA_*/*.optaa*.log</t>
-  </si>
-  <si>
-    <t>CE09OSSM-MFD37-01-OPTAAD000</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/FLORT_*/*.flort.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-02-FLORTD000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/CTDBP_*/*ctdbp*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-03-CTDBPC000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl37/CTDBP_*/*ctdbp*.log</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/DOSTA_*/*dosta*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-04-DOSTAD000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl37/DOSTA_*/*dosta*.log</t>
-  </si>
-  <si>
-    <t>CE09OSSM-MFD37-04-DOSTAD000</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl27/NUTNR_*/*SCH*.DAT</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-07-NUTNRB000</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/adcpt_*/*adcpt.log</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl35/adcpt_*/*adcpt.log</t>
-  </si>
-  <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl35/PCO2W_*/SAMI*.txt</t>
-  </si>
-  <si>
     <t>CE09OSSM-MFD35-05-PCO2WB000</t>
   </si>
   <si>
     <t>CE09OSSM-MFD35-01-VEL3DD000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl35/PRESF_*/PRESF*.hex</t>
-  </si>
-  <si>
-    <t>CE09OSSM-MFD35-02-PRESFB000</t>
-  </si>
-  <si>
     <t>Note:  Change the file name to uniquely identify it; i.e., CE09OSSM_R0000#_ingest_v#; where R0000# identifies deployment number, and v# identifies the version of this document.</t>
   </si>
   <si>
@@ -217,18 +139,12 @@
     <t>CE09OSSM-SBD11-04-VELPTA000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/dcl11/velpt1_*/*.velpt*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-MFD37-03-CTDBPE000</t>
   </si>
   <si>
     <t>CE09OSSM-SBD12-04-PCO2AA000</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl12/pco2a_*/PCO2A*.log</t>
-  </si>
-  <si>
     <t>CE09OSSM-MFD35-04-ADCPSJ000</t>
   </si>
   <si>
@@ -271,9 +187,6 @@
     <t>Ingest.cg-dcl-eng-dcl_recovered</t>
   </si>
   <si>
-    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/irid2shore/cpm_status*.txt</t>
-  </si>
-  <si>
     <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/cpm2/syslog/cpm_status.txt</t>
   </si>
   <si>
@@ -302,13 +215,205 @@
   </si>
   <si>
     <t>CE09OSSM-MFD37-06-CAMDSA000</t>
+  </si>
+  <si>
+    <t>Ingest.hyd-o-dcl_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.velpt-ab-dcl_recovered</t>
+  </si>
+  <si>
+    <t>Recovered DCL data</t>
+  </si>
+  <si>
+    <t>Recovered Instrument data</t>
+  </si>
+  <si>
+    <t>Ingest.wavss-a-dcl_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.adcps-jln_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.phsen-abcdef_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.nutnr-b-dcl-conc_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.ctdbp-cdef-dcl-cp_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.vel3d-cd_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.presf-abc_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.pco2w-abc_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.ctdbp-cdef-dcl-ce-dosta_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.ctdbp-cdef-ce-dosta_recovered</t>
+  </si>
+  <si>
+    <t>Ingest.zplsc-c-dcl_recovered</t>
+  </si>
+  <si>
+    <t>This is a single file updated every minute. There will only be 1 of these files and the data in it will be from the last update.</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl11/mopak/*.mopak.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD11-01-MOPAK0000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl11/hyd1/*.hyd1.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD11-02-HYDGN0000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl11/velpt1/*.velpt1.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl11/VELPT_*/*velpt*.aqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl11/metbk/*.metbk.log </t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl12/hyd2/*.hyd2.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD12-03-HYDGN0000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl12/pco2a/*.pco2a.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl12/wavss/*.wavss.log </t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl26/ADCPT_*/*adcpt*.pd0</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/velpt2/*.velpt2.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl26/VELPT_*/*velpt*.aqd</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/phsen1/*.phsen1.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl26/PHSEN_*/*phsen*.txt</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/nutnr/*.nutnr.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-RID26-07-NUTNRB000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl26/NUTNR_*/*nutnr*/*SCH*.DAT</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/spkir/*.spkir.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-RID26-08-SPKIRB000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl27/optaa1/*.optaa1.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl27/flort/*.flort.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl27/ctdbp1/*.ctdbp1.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl27/CTDBP_*/*ctdbp*.hex</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl27/dosta/*.dosta.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl35/VEL3D_*/*vel3d*.vec</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl35/presf/*.presf.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl35/PRESF_*/PRESF*.hex</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl35/ADCPS_*/*adcps*.pd0</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl35/pco2w/*.pco2w.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl35/PCO2W_*/*pco2w*.txt</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl35/phsen2/*.phsen2.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl35/PHSEN_*/*phsen*.txt</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl37/optaa2/*.optaa2.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-01-OPTAAC000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl37/ctdbp2/*.ctdbp2.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl37/CTDBP_*/*ctdbp*.hex</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-03-DOSTAD000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl37/camds/*.camds.jpg</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl37/CAMDS_*/*camds*.jpg</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl37/zplsc/*.zplsc.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-07-ZPLSCC000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/irid2shore/cpm_status*.txt</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl26/adcpt/*.adcpt.log</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/cg_data/dcl35/adcps/*.adcps.log</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD35-02-PRESFC000</t>
+  </si>
+  <si>
+    <t>/omc_data/whoi/OMC/CE09OSSM/R00001/instrmts/dcl37/ZPLSC_*/*zplsc*/DATA/*/*.01A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +530,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,13 +559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1248833</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1259417</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -504,15 +605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2487085</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:colOff>2465917</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2540000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:colOff>2540001</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -521,8 +622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4815418" y="6350000"/>
-          <a:ext cx="52915" cy="211667"/>
+          <a:off x="4794250" y="9779000"/>
+          <a:ext cx="74084" cy="1005419"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -626,7 +727,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -661,7 +761,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,25 +936,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="525" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="81.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,581 +968,931 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D50" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="D51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:7" ht="45">
+      <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40" s="10" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58"/>
+      <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46" s="12"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60"/>
+      <c r="B60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64"/>
+      <c r="B64" s="12"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
